--- a/biology/Botanique/Soude_brûlée/Soude_brûlée.xlsx
+++ b/biology/Botanique/Soude_brûlée/Soude_brûlée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soude_br%C3%BBl%C3%A9e</t>
+          <t>Soude_brûlée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salsola kali
-La Soude brûlée ou Soude épineuse (Salsola kali ou Kali turgidum) est une plante de la famille des amaranthacées ou des chénopodiacées selon la classification classique de Cronquist (1981)[3], du genre Salsola.
+La Soude brûlée ou Soude épineuse (Salsola kali ou Kali turgidum) est une plante de la famille des amaranthacées ou des chénopodiacées selon la classification classique de Cronquist (1981), du genre Salsola.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soude_br%C3%BBl%C3%A9e</t>
+          <t>Soude_brûlée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La floraison a lieu de juillet à septembre[4] ou octobre[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de juillet à septembre ou octobre.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soude_br%C3%BBl%C3%A9e</t>
+          <t>Soude_brûlée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente dans tout le bassin méditerranéen[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans tout le bassin méditerranéen.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Soude_br%C3%BBl%C3%A9e</t>
+          <t>Soude_brûlée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce n'est pas considérée comme étant menacée en France. En 2021 elle est classée Espèce de préoccupation mineure (LC) par l'UICN.
 Toutefois localement l'espèce peut se raréfier : elle est considérée Quasi menacée (NT), proche du seuil des espèces menacées ou qui pourrait être menacée si des mesures de conservation spécifiques n'étaient pas prises, dans la région Picardie ; elle est considérée Vulnérable (VU) en Midi-Pyrénées et Rhône-Alpes ; elle est en Danger-critique (CR) en Haute-Normandie.
